--- a/outputs-HGR-r202/g__CAG-110.xlsx
+++ b/outputs-HGR-r202/g__CAG-110.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp003525905</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>s__CAG-110 sp900544975</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp900544975(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,6 +790,11 @@
           <t>s__CAG-110 sp000434635</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp000434635</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -850,6 +870,11 @@
           <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp003525905</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -925,6 +950,11 @@
           <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp003525905</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1000,6 +1030,11 @@
           <t>s__CAG-110 sp900544975</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp900544975(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1075,6 +1110,11 @@
           <t>s__CAG-110 sp900544945</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp900544945(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1150,6 +1190,11 @@
           <t>s__CAG-110 sp900544945</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp900544945(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1225,6 +1270,11 @@
           <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp003525905</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1296,6 +1346,11 @@
         <v>0.9656780455575783</v>
       </c>
       <c r="W11" t="inlineStr">
+        <is>
+          <t>s__CAG-110 sp003525905</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>s__CAG-110 sp003525905</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-110.xlsx
+++ b/outputs-HGR-r202/g__CAG-110.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,231 +639,231 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16183.fa</t>
+          <t>even_MAG-GUT22591.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1324653257781887</v>
+        <v>0.8880567708365878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001514044343333345</v>
+        <v>1.486041558358844e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>1.589966806247095e-13</v>
+        <v>2.220321181689371e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2064380778550954</v>
+        <v>3.844817954029261e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00601228224886392</v>
+        <v>0.0004248480209923026</v>
       </c>
       <c r="G3" t="n">
-        <v>2.543195254001273e-06</v>
+        <v>1.535721309721217e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001982516971465187</v>
+        <v>1.040738557241143e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2822837934627941</v>
+        <v>0.0001221296008623274</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01129140971332503</v>
+        <v>0.1012621242370606</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08264549394438531</v>
+        <v>0.007179019467015116</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2217192330537927</v>
+        <v>0.0001626859019547762</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008982781797297404</v>
+        <v>1.979142655044643e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>8.208632642108543e-05</v>
+        <v>1.999258669507831e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005508324988756734</v>
+        <v>0.0002141293711187348</v>
       </c>
       <c r="P3" t="n">
-        <v>0.007281002019992826</v>
+        <v>0.0006938614497706846</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01446334865771097</v>
+        <v>0.00108135460188309</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01405952709928507</v>
+        <v>1.703445537152447e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001466655607958581</v>
+        <v>3.520277592160265e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0004488028666206905</v>
+        <v>3.366434608853513e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00135275006930005</v>
+        <v>0.0006982652280459443</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2822837934627941</v>
+        <v>0.8880567708365878</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544975</t>
+          <t>s__CAG-110 sp000434635</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544975(reject)</t>
+          <t>s__CAG-110 sp000434635</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22591.fa</t>
+          <t>even_MAG-GUT56645.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8880567708365878</v>
+        <v>7.685136209833797e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.486041558358844e-08</v>
+        <v>2.220056410487551e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220321181689371e-14</v>
+        <v>0.9599818307812117</v>
       </c>
       <c r="E4" t="n">
-        <v>3.844817954029261e-06</v>
+        <v>2.220056410487551e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004248480209923026</v>
+        <v>5.781128565740436e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>1.535721309721217e-05</v>
+        <v>0.003698175634127716</v>
       </c>
       <c r="H4" t="n">
-        <v>1.040738557241143e-05</v>
+        <v>3.051376936845724e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001221296008623274</v>
+        <v>2.220056410487551e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1012621242370606</v>
+        <v>2.867871896842066e-10</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007179019467015116</v>
+        <v>0.03511472916986505</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001626859019547762</v>
+        <v>3.210386517296414e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>1.979142655044643e-05</v>
+        <v>1.18122630047382e-07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.999258669507831e-05</v>
+        <v>0.001040781074395</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002141293711187348</v>
+        <v>3.886185305161748e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0006938614497706846</v>
+        <v>7.595285486693976e-09</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00108135460188309</v>
+        <v>4.899934954487225e-07</v>
       </c>
       <c r="R4" t="n">
-        <v>1.703445537152447e-06</v>
+        <v>2.220056410487551e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>3.520277592160265e-08</v>
+        <v>4.666710156903426e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>3.366434608853513e-05</v>
+        <v>4.814060532471776e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0006982652280459443</v>
+        <v>2.239118936268986e-11</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8880567708365878</v>
+        <v>0.9599818307812117</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp000434635</t>
+          <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp000434635</t>
+          <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56645.fa</t>
+          <t>even_MAG-GUT80567.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.685136209833797e-05</v>
+        <v>0.001655708776100347</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220056410487551e-14</v>
+        <v>2.220357323986054e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9599818307812117</v>
+        <v>0.9311447341223029</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220056410487551e-14</v>
+        <v>2.220357323986054e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>5.781128565740436e-09</v>
+        <v>1.37637221119906e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003698175634127716</v>
+        <v>0.009789598358250686</v>
       </c>
       <c r="H5" t="n">
-        <v>3.051376936845724e-09</v>
+        <v>4.156470095341555e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220056410487551e-14</v>
+        <v>6.081879217566986e-11</v>
       </c>
       <c r="J5" t="n">
-        <v>2.867871896842066e-10</v>
+        <v>3.903517457867661e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03511472916986505</v>
+        <v>0.05606906805494991</v>
       </c>
       <c r="L5" t="n">
-        <v>3.210386517296414e-14</v>
+        <v>4.733716470166802e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18122630047382e-07</v>
+        <v>8.915838268421783e-07</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001040781074395</v>
+        <v>0.0004294934373480907</v>
       </c>
       <c r="O5" t="n">
-        <v>3.886185305161748e-05</v>
+        <v>1.977289078466565e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>7.595285486693976e-09</v>
+        <v>2.468943373940947e-07</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.899934954487225e-07</v>
+        <v>3.048728853928045e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220056410487551e-14</v>
+        <v>6.336306638376826e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>4.666710156903426e-09</v>
+        <v>1.146192121482738e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>4.814060532471776e-05</v>
+        <v>0.0008581763636618615</v>
       </c>
       <c r="U5" t="n">
-        <v>2.239118936268986e-11</v>
+        <v>1.945020251054879e-09</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9599818307812117</v>
+        <v>0.9311447341223029</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -879,478 +879,238 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80567.fa</t>
+          <t>even_MAG-GUT85926.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001655708776100347</v>
+        <v>2.808299362085052e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220357323986054e-14</v>
+        <v>0.0796218515838167</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9311447341223029</v>
+        <v>3.862430722325695e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220357323986054e-14</v>
+        <v>0.0007857086120746428</v>
       </c>
       <c r="F6" t="n">
-        <v>1.37637221119906e-06</v>
+        <v>8.669805145928535e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009789598358250686</v>
+        <v>1.192484245458415e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>4.156470095341555e-08</v>
+        <v>0.3853612782841673</v>
       </c>
       <c r="I6" t="n">
-        <v>6.081879217566986e-11</v>
+        <v>0.01683584820071507</v>
       </c>
       <c r="J6" t="n">
-        <v>3.903517457867661e-07</v>
+        <v>0.03145298903619384</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05606906805494991</v>
+        <v>0.1200314960593565</v>
       </c>
       <c r="L6" t="n">
-        <v>4.733716470166802e-10</v>
+        <v>0.002458106738905935</v>
       </c>
       <c r="M6" t="n">
-        <v>8.915838268421783e-07</v>
+        <v>0.0385211325962326</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0004294934373480907</v>
+        <v>3.044468037556573e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>1.977289078466565e-05</v>
+        <v>0.0091626349254939</v>
       </c>
       <c r="P6" t="n">
-        <v>2.468943373940947e-07</v>
+        <v>0.08682034207576896</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.048728853928045e-05</v>
+        <v>0.008841233798818057</v>
       </c>
       <c r="R6" t="n">
-        <v>6.336306638376826e-14</v>
+        <v>0.005361538557454928</v>
       </c>
       <c r="S6" t="n">
-        <v>1.146192121482738e-08</v>
+        <v>0.2098975363817392</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0008581763636618615</v>
+        <v>0.0004328824411173853</v>
       </c>
       <c r="U6" t="n">
-        <v>1.945020251054879e-09</v>
+        <v>0.004297475946216531</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9311447341223029</v>
+        <v>0.3853612782841673</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp003525905</t>
+          <t>s__CAG-110 sp900544945</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp003525905</t>
+          <t>s__CAG-110 sp900544945(reject)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85125.fa</t>
+          <t>even_MAG-GUT9744.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.148456695984376</v>
+        <v>5.826948075346198e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003495333097642255</v>
+        <v>2.219916786277331e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.740373008521139e-13</v>
+        <v>0.9567346382871145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05037124713720566</v>
+        <v>2.219916786277331e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004382996749909337</v>
+        <v>1.835140375942308e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>3.070687248373205e-06</v>
+        <v>0.0002971824137610754</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0005905709796831551</v>
+        <v>1.77118115246489e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3033326262812671</v>
+        <v>2.219916786277331e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01752388709083721</v>
+        <v>3.51119923163431e-11</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1382279552673694</v>
+        <v>0.04286193036001965</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0513932232514961</v>
+        <v>2.219916786277331e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0357860589228644</v>
+        <v>3.946377773787224e-09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4508583592905e-05</v>
+        <v>4.483016650528328e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01025943743072444</v>
+        <v>2.247145386859791e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04054758144996849</v>
+        <v>1.964473191767581e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02079238833036899</v>
+        <v>2.734784888806015e-08</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1721767118593321</v>
+        <v>2.219916786277331e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001654048986158129</v>
+        <v>6.221359159818333e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002147073789426249</v>
+        <v>8.669059671306419e-07</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004671647605657715</v>
+        <v>4.605988010888672e-11</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3033326262812671</v>
+        <v>0.9567346382871145</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544975</t>
+          <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544975(reject)</t>
+          <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85926.fa</t>
+          <t>even_MAG-GUT9970.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.808299362085052e-05</v>
+        <v>6.234781172565401e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0796218515838167</v>
+        <v>2.219953565924437e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>3.862430722325695e-13</v>
+        <v>0.9656780455575783</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007857086120746428</v>
+        <v>2.219953565924437e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>8.669805145928535e-05</v>
+        <v>4.511195405667543e-10</v>
       </c>
       <c r="G8" t="n">
-        <v>1.192484245458415e-07</v>
+        <v>0.0005902587248742252</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3853612782841673</v>
+        <v>2.804472721057498e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01683584820071507</v>
+        <v>2.219953565924437e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03145298903619384</v>
+        <v>6.549677226272048e-12</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1200314960593565</v>
+        <v>0.03362470044197462</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002458106738905935</v>
+        <v>2.219953565924437e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0385211325962326</v>
+        <v>2.169006961182574e-10</v>
       </c>
       <c r="N8" t="n">
-        <v>3.044468037556573e-06</v>
+        <v>9.642919517125066e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0091626349254939</v>
+        <v>2.99961551639429e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08682034207576896</v>
+        <v>1.750211834182374e-10</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008841233798818057</v>
+        <v>4.196784145789304e-10</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005361538557454928</v>
+        <v>2.219953565924437e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2098975363817392</v>
+        <v>3.897759457175876e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0004328824411173853</v>
+        <v>1.327601488951783e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004297475946216531</v>
+        <v>4.472816710444381e-12</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3853612782841673</v>
+        <v>0.9656780455575783</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544945</t>
+          <t>s__CAG-110 sp003525905</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
-        <is>
-          <t>s__CAG-110 sp900544945(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86439.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.044567915008744e-05</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04759122671881223</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.911456278922556e-13</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.004008763847729215</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.064320887930674e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.553776518175404e-07</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3228205957370939</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.004968727571444149</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.07827490550216458</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.03872871575370276</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.009168696072435213</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.166658298664575</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.601134164630149e-06</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.003404336752764052</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.02173568196501541</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.009433443334826395</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.001008648155251592</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2898449329840525</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0002636810376272308</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.002024500502468854</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.3228205957370939</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>s__CAG-110 sp900544945</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>s__CAG-110 sp900544945(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9744.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5.826948075346198e-05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.219916786277331e-14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9567346382871145</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.219916786277331e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.835140375942308e-09</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0002971824137610754</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.77118115246489e-09</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.219916786277331e-14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.51119923163431e-11</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.04286193036001965</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.219916786277331e-14</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.946377773787224e-09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.483016650528328e-05</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.247145386859791e-06</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.964473191767581e-10</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.734784888806015e-08</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.219916786277331e-14</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6.221359159818333e-11</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8.669059671306419e-07</v>
-      </c>
-      <c r="U10" t="n">
-        <v>4.605988010888672e-11</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.9567346382871145</v>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>s__CAG-110 sp003525905</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>s__CAG-110 sp003525905</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9970.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.234781172565401e-06</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.219953565924437e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9656780455575783</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.219953565924437e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.511195405667543e-10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0005902587248742252</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.804472721057498e-09</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.219953565924437e-14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.549677226272048e-12</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.03362470044197462</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.219953565924437e-14</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.169006961182574e-10</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9.642919517125066e-05</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.99961551639429e-06</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.750211834182374e-10</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4.196784145789304e-10</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.219953565924437e-14</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.897759457175876e-12</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.327601488951783e-06</v>
-      </c>
-      <c r="U11" t="n">
-        <v>4.472816710444381e-12</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.9656780455575783</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>s__CAG-110 sp003525905</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
         <is>
           <t>s__CAG-110 sp003525905</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-110.xlsx
+++ b/outputs-HGR-r202/g__CAG-110.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544975</t>
+          <t>s__CAG-110 sp900544975(reject)</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900546915</t>
+          <t>s__CAG-110 sp900546915(reject)</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544945</t>
+          <t>s__CAG-110 sp900544945(reject)</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900544945</t>
+          <t>s__CAG-110 sp900544945(reject)</t>
         </is>
       </c>
     </row>
